--- a/xlsx/人类学_intext.xlsx
+++ b/xlsx/人类学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>人類學</t>
   </si>
   <si>
-    <t>政策_政策_政治學_人类学</t>
+    <t>体育运动_体育运动_文化_人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%B3%AA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
